--- a/Metadata_in/metadata_excel_example.xlsx
+++ b/Metadata_in/metadata_excel_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinnorgaard/Documents/GitHub/BIDS-converter/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIDS\ONP\BIDS-converter\Metadata_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D9852-5605-6043-ADAD-E16BE0DDF0E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6621B04B-DC62-40EA-AD7C-D00022C2DFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16700" xr2:uid="{B09AB50C-E81C-BF4B-AB80-4C0F8EC55ACD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B09AB50C-E81C-BF4B-AB80-4C0F8EC55ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>13:04:42</t>
+  </si>
+  <si>
+    <t>InstitutionName</t>
+  </si>
+  <si>
+    <t>Rigshospitalet</t>
+  </si>
+  <si>
+    <t>InstitutionalDepartmentName</t>
+  </si>
+  <si>
+    <t>Neurobiology Research Unit</t>
   </si>
 </sst>
 </file>
@@ -227,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,13 +535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D07A739-95C2-BD46-B2B0-50E40D980EB4}">
-  <dimension ref="A1:AA46"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
@@ -551,13 +563,15 @@
     <col min="20" max="20" width="23.6640625" customWidth="1"/>
     <col min="21" max="21" width="17.6640625" customWidth="1"/>
     <col min="22" max="22" width="26.83203125" customWidth="1"/>
-    <col min="23" max="23" width="26.33203125" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.33203125" customWidth="1"/>
     <col min="25" max="26" width="14.83203125" customWidth="1"/>
     <col min="27" max="27" width="27.83203125" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+    <col min="29" max="29" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,8 +653,14 @@
       <c r="AA1" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -722,8 +742,14 @@
       <c r="AA2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P3">
         <v>10</v>
       </c>
@@ -740,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P4">
         <v>20</v>
       </c>
@@ -748,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P5">
         <v>30</v>
       </c>
@@ -756,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P6">
         <v>40</v>
       </c>
@@ -764,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P7">
         <v>50</v>
       </c>
@@ -772,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P8">
         <v>60</v>
       </c>
@@ -780,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P9">
         <v>80</v>
       </c>
@@ -788,7 +814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P10">
         <v>100</v>
       </c>
@@ -796,7 +822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P11">
         <v>120</v>
       </c>
@@ -804,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P12">
         <v>140</v>
       </c>
@@ -812,7 +838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P13">
         <v>160</v>
       </c>
@@ -820,7 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P14">
         <v>180</v>
       </c>
@@ -828,7 +854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P15">
         <v>240</v>
       </c>
@@ -836,7 +862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P16">
         <v>300</v>
       </c>
@@ -844,7 +870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P17">
         <v>360</v>
       </c>
@@ -852,7 +878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P18">
         <v>420</v>
       </c>
@@ -860,7 +886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P19">
         <v>480</v>
       </c>
@@ -868,7 +894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P20">
         <v>540</v>
       </c>
@@ -876,7 +902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P21">
         <v>660</v>
       </c>
@@ -884,7 +910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P22">
         <v>780</v>
       </c>
@@ -892,7 +918,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P23">
         <v>900</v>
       </c>
@@ -900,7 +926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P24">
         <v>1020</v>
       </c>
@@ -908,7 +934,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P25">
         <v>1140</v>
       </c>
@@ -916,7 +942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P26">
         <v>1260</v>
       </c>
@@ -924,7 +950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P27">
         <v>1380</v>
       </c>
@@ -932,7 +958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P28">
         <v>1500</v>
       </c>
@@ -940,7 +966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P29">
         <v>1800</v>
       </c>
@@ -948,7 +974,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P30">
         <v>2100</v>
       </c>
@@ -956,7 +982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P31">
         <v>2400</v>
       </c>
@@ -964,7 +990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P32">
         <v>2700</v>
       </c>
@@ -972,7 +998,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P33">
         <v>3000</v>
       </c>
@@ -980,7 +1006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P34">
         <v>3300</v>
       </c>
@@ -988,7 +1014,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P35">
         <v>3600</v>
       </c>
@@ -996,7 +1022,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P36">
         <v>3900</v>
       </c>
@@ -1004,7 +1030,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P37">
         <v>4200</v>
       </c>
@@ -1012,7 +1038,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P38">
         <v>4500</v>
       </c>
@@ -1020,7 +1046,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P39">
         <v>4800</v>
       </c>
@@ -1028,7 +1054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P40">
         <v>5100</v>
       </c>
@@ -1036,7 +1062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P41">
         <v>5400</v>
       </c>
@@ -1044,7 +1070,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P42">
         <v>5700</v>
       </c>
@@ -1052,7 +1078,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P43">
         <v>6000</v>
       </c>
@@ -1060,7 +1086,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P44">
         <v>6300</v>
       </c>
@@ -1068,7 +1094,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P45">
         <v>6600</v>
       </c>
@@ -1076,7 +1102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P46">
         <v>6900</v>
       </c>
